--- a/Bases/Informes_2022.xlsx
+++ b/Bases/Informes_2022.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Leyenda" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Componentes!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Componentes!$A$1:$R$355</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Graduacion!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -2500,11 +2500,6 @@
     <t>El administrado no realizó los monitoreos ambientales de: calidad
 de aire, ruido ambiental y agua (poza de lixiviados), correspondiente al primer
 semestre del año 2021, incumpliendo su instrumento de gestión ambiental.</t>
-  </si>
-  <si>
-    <t>El administrado no presentó el Primer Informe de Avance
-Semestral de Implementación del Plan de Manejo Ambiental, contraviniendo lo
-establecido en su DIA.</t>
   </si>
   <si>
     <t>El administrado ejecuta el programa de monitoreo ambiental
@@ -3001,6 +2996,9 @@
   </si>
   <si>
     <t>No tenia cuadros de información</t>
+  </si>
+  <si>
+    <t>Sin especificar</t>
   </si>
 </sst>
 </file>
@@ -3514,8 +3512,8 @@
   <dimension ref="A1:R355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P265" sqref="P265"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17392,7 +17390,7 @@
         <v>182</v>
       </c>
       <c r="D265" s="27" t="s">
-        <v>563</v>
+        <v>650</v>
       </c>
       <c r="E265" s="25">
         <v>1</v>
@@ -17428,7 +17426,7 @@
         <v>182</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E266" s="3">
         <v>2</v>
@@ -17480,7 +17478,7 @@
         <v>182</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E267" s="3">
         <v>2</v>
@@ -17638,7 +17636,7 @@
         <v>190</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E271" s="3">
         <v>1</v>
@@ -17690,7 +17688,7 @@
         <v>190</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E272" s="3">
         <v>2</v>
@@ -17742,7 +17740,7 @@
         <v>193</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E273" s="3">
         <v>1</v>
@@ -17792,7 +17790,7 @@
         <v>196</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E274" s="3">
         <v>1</v>
@@ -17876,7 +17874,7 @@
         <v>202</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E276" s="3">
         <v>1</v>
@@ -17928,7 +17926,7 @@
         <v>202</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E277" s="3">
         <v>1</v>
@@ -17980,7 +17978,7 @@
         <v>202</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E278" s="3">
         <v>1</v>
@@ -18032,7 +18030,7 @@
         <v>202</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E279" s="3">
         <v>1</v>
@@ -18084,7 +18082,7 @@
         <v>205</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E280" s="3">
         <v>2</v>
@@ -18132,7 +18130,7 @@
         <v>205</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E281" s="3">
         <v>3</v>
@@ -18180,7 +18178,7 @@
         <v>205</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E282" s="3">
         <v>4</v>
@@ -18228,7 +18226,7 @@
         <v>205</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E283" s="3">
         <v>5</v>
@@ -18276,7 +18274,7 @@
         <v>205</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E284" s="3">
         <v>6</v>
@@ -18392,7 +18390,7 @@
         <v>213</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E287" s="3">
         <v>1</v>
@@ -18440,7 +18438,7 @@
         <v>216</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E288" s="3">
         <v>1</v>
@@ -18494,7 +18492,7 @@
         <v>216</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E289" s="3">
         <v>1</v>
@@ -18548,7 +18546,7 @@
         <v>216</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E290" s="3">
         <v>1</v>
@@ -18602,7 +18600,7 @@
         <v>216</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E291" s="3">
         <v>1</v>
@@ -18656,7 +18654,7 @@
         <v>216</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E292" s="3">
         <v>1</v>
@@ -18710,7 +18708,7 @@
         <v>216</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E293" s="3">
         <v>1</v>
@@ -18764,7 +18762,7 @@
         <v>216</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E294" s="3">
         <v>2</v>
@@ -18818,7 +18816,7 @@
         <v>216</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E295" s="3">
         <v>2</v>
@@ -18872,7 +18870,7 @@
         <v>216</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E296" s="3">
         <v>2</v>
@@ -18926,7 +18924,7 @@
         <v>216</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E297" s="3">
         <v>2</v>
@@ -18980,7 +18978,7 @@
         <v>216</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E298" s="3">
         <v>2</v>
@@ -19034,7 +19032,7 @@
         <v>216</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E299" s="3">
         <v>2</v>
@@ -19088,7 +19086,7 @@
         <v>216</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E300" s="3">
         <v>3</v>
@@ -19140,7 +19138,7 @@
         <v>216</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E301" s="3">
         <v>4</v>
@@ -19192,7 +19190,7 @@
         <v>216</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E302" s="3">
         <v>5</v>
@@ -19244,7 +19242,7 @@
         <v>219</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E303" s="3">
         <v>1</v>
@@ -19300,7 +19298,7 @@
         <v>219</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E304" s="3">
         <v>1</v>
@@ -19356,7 +19354,7 @@
         <v>219</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E305" s="3">
         <v>1</v>
@@ -19408,7 +19406,7 @@
         <v>222</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E306" s="3">
         <v>3</v>
@@ -19458,7 +19456,7 @@
         <v>225</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E307" s="3">
         <v>1</v>
@@ -19510,7 +19508,7 @@
         <v>225</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E308" s="3">
         <v>2</v>
@@ -19562,7 +19560,7 @@
         <v>228</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E309" s="3">
         <v>1</v>
@@ -19614,7 +19612,7 @@
         <v>164</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E310" s="3">
         <v>5</v>
@@ -19666,7 +19664,7 @@
         <v>233</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E311" s="3">
         <v>1</v>
@@ -19714,7 +19712,7 @@
         <v>233</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E312" s="3">
         <v>2</v>
@@ -19764,7 +19762,7 @@
         <v>233</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E313" s="3">
         <v>3</v>
@@ -19814,7 +19812,7 @@
         <v>233</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E314" s="3">
         <v>4</v>
@@ -19864,7 +19862,7 @@
         <v>233</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E315" s="3">
         <v>6</v>
@@ -19916,7 +19914,7 @@
         <v>233</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E316" s="3">
         <v>6</v>
@@ -19968,7 +19966,7 @@
         <v>233</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E317" s="3">
         <v>7</v>
@@ -20018,7 +20016,7 @@
         <v>233</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E318" s="3">
         <v>8</v>
@@ -20068,7 +20066,7 @@
         <v>233</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E319" s="3">
         <v>9</v>
@@ -20118,7 +20116,7 @@
         <v>236</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E320" s="3">
         <v>1</v>
@@ -20170,7 +20168,7 @@
         <v>236</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E321" s="3">
         <v>2</v>
@@ -20222,7 +20220,7 @@
         <v>236</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E322" s="3">
         <v>3</v>
@@ -20274,7 +20272,7 @@
         <v>236</v>
       </c>
       <c r="D323" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E323" s="3">
         <v>4</v>
@@ -20326,7 +20324,7 @@
         <v>236</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E324" s="3">
         <v>5</v>
@@ -20378,7 +20376,7 @@
         <v>236</v>
       </c>
       <c r="D325" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E325" s="3">
         <v>6</v>
@@ -20430,7 +20428,7 @@
         <v>239</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E326" s="3">
         <v>1</v>
@@ -20482,7 +20480,7 @@
         <v>239</v>
       </c>
       <c r="D327" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E327" s="3">
         <v>2</v>
@@ -20534,7 +20532,7 @@
         <v>239</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E328" s="3">
         <v>3</v>
@@ -20586,7 +20584,7 @@
         <v>239</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E329" s="3">
         <v>4</v>
@@ -20626,7 +20624,7 @@
         <v>240</v>
       </c>
       <c r="R329" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.3">
@@ -20640,7 +20638,7 @@
         <v>239</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E330" s="3">
         <v>4</v>
@@ -20680,7 +20678,7 @@
         <v>240</v>
       </c>
       <c r="R330" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.3">
@@ -20694,7 +20692,7 @@
         <v>239</v>
       </c>
       <c r="D331" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E331" s="3">
         <v>5</v>
@@ -20746,7 +20744,7 @@
         <v>239</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E332" s="3">
         <v>6</v>
@@ -20798,7 +20796,7 @@
         <v>242</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E333" s="3">
         <v>1</v>
@@ -20850,7 +20848,7 @@
         <v>245</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E334" s="3">
         <v>1</v>
@@ -20900,7 +20898,7 @@
         <v>248</v>
       </c>
       <c r="D335" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E335" s="3">
         <v>1</v>
@@ -20950,7 +20948,7 @@
         <v>248</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E336" s="3">
         <v>2</v>
@@ -21000,7 +20998,7 @@
         <v>248</v>
       </c>
       <c r="D337" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E337" s="3">
         <v>3</v>
@@ -21098,7 +21096,7 @@
         <v>254</v>
       </c>
       <c r="D339" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E339" s="3">
         <v>1</v>
@@ -21150,7 +21148,7 @@
         <v>254</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E340" s="3">
         <v>2</v>
@@ -21202,7 +21200,7 @@
         <v>254</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E341" s="3">
         <v>3</v>
@@ -21288,7 +21286,7 @@
         <v>259</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E343" s="3">
         <v>1</v>
@@ -21340,7 +21338,7 @@
         <v>259</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E344" s="3">
         <v>2</v>
@@ -21392,7 +21390,7 @@
         <v>262</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E345" s="3">
         <v>1</v>
@@ -21444,7 +21442,7 @@
         <v>262</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E346" s="3">
         <v>2</v>
@@ -21496,7 +21494,7 @@
         <v>265</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E347" s="3">
         <v>1</v>
@@ -21548,7 +21546,7 @@
         <v>268</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E348" s="3">
         <v>1</v>
@@ -21600,7 +21598,7 @@
         <v>268</v>
       </c>
       <c r="D349" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E349" s="3">
         <v>3</v>
@@ -21652,7 +21650,7 @@
         <v>268</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E350" s="3">
         <v>5</v>
@@ -21704,7 +21702,7 @@
         <v>268</v>
       </c>
       <c r="D351" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E351" s="3">
         <v>7</v>
@@ -21756,7 +21754,7 @@
         <v>268</v>
       </c>
       <c r="D352" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E352" s="3">
         <v>8</v>
@@ -21808,7 +21806,7 @@
         <v>268</v>
       </c>
       <c r="D353" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E353" s="3">
         <v>9</v>
@@ -21860,7 +21858,7 @@
         <v>268</v>
       </c>
       <c r="D354" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E354" s="3">
         <v>11</v>
@@ -21912,7 +21910,7 @@
         <v>268</v>
       </c>
       <c r="D355" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E355" s="3">
         <v>13</v>
@@ -21954,7 +21952,7 @@
       <c r="R355" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1"/>
+  <autoFilter ref="A1:R355"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -22000,7 +21998,7 @@
         <v>289</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -31554,19 +31552,19 @@
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="37"/>
       <c r="C3" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
       <c r="C5" s="39" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/Bases/Informes_2022.xlsx
+++ b/Bases/Informes_2022.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NUEVO D\LOCACION OEFA\Busqueda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NUEVO D\REPOSITORIO_GITHUB\OEFA_SMER\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="652">
   <si>
     <t>Informes</t>
   </si>
@@ -2999,6 +2999,9 @@
   </si>
   <si>
     <t>Sin especificar</t>
+  </si>
+  <si>
+    <t>Multa coerticiva</t>
   </si>
 </sst>
 </file>
@@ -3511,9 +3514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R355"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A265" sqref="A265:XFD265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21963,9 +21966,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B485" sqref="B485"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A331" sqref="A331:XFD331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28706,7 +28709,9 @@
         <v>198</v>
       </c>
       <c r="D341" s="4"/>
-      <c r="E341" s="4"/>
+      <c r="E341" s="4" t="s">
+        <v>651</v>
+      </c>
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
     </row>
@@ -30644,7 +30649,9 @@
       <c r="B437" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C437" s="3"/>
+      <c r="C437" s="3">
+        <v>1</v>
+      </c>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="F437" s="10">
@@ -30659,7 +30666,9 @@
       <c r="B438" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C438" s="3"/>
+      <c r="C438" s="3">
+        <v>1</v>
+      </c>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="10">

--- a/Bases/Informes_2022.xlsx
+++ b/Bases/Informes_2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes" sheetId="1" r:id="rId1"/>
@@ -3514,9 +3514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R355"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A265" sqref="A265:XFD265"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G268" sqref="D268:G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21966,9 +21966,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A331" sqref="A331:XFD331"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A332" sqref="A331:XFD332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31544,7 +31544,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
